--- a/Documents/Sakthivel.A - Work.xlsx
+++ b/Documents/Sakthivel.A - Work.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t xml:space="preserve">Git Hub Link:</t>
   </si>
@@ -225,7 +225,7 @@
 2.DevOps
 3.Docker (Dockerfile, .dockerignore and Docker commands)
 4.Map web application (Using MapTiler API)
-5.React JS (HOOKS - useContext )</t>
+5.React JS (HOOKS – useContext)</t>
   </si>
   <si>
     <t xml:space="preserve">1.Learned the basics of cloud computing and DevOps.
@@ -245,7 +245,7 @@
 4.Created my own alert component in React JS.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Ful Stack Web Application (React JS, Spring Boot and MySQl)
+    <t xml:space="preserve">1.Full Stack Web Application (React JS, Spring Boot and MySQl)
 2.React JS (Routing concept, Form validation and Own custom alert component)
 3.Spring Boot (Pagination)</t>
   </si>
@@ -265,9 +265,9 @@
 4.Created a website with navbar which navigate within the same page with active navbar using react-scroll library</t>
   </si>
   <si>
-    <t xml:space="preserve">1.React JS ( Pagination, Unit testing, react-scroll and react-router-dom )
-2.Spring Boot ( Unit testing using Junit and Mockito )
-3.CSS ( Used some webkit css styles in my website)</t>
+    <t xml:space="preserve">1.React JS (Pagination, Unit testing, react-scroll and react-router-dom)
+2.Spring Boot (Unit testing using Junit and Mockito)
+3.CSS (Used some webkit css styles in my website)</t>
   </si>
   <si>
     <t xml:space="preserve">1.Learned about the multiple ways to implement pagination.
@@ -275,6 +275,60 @@
 3.Learned about the useNavigation in React library react-router-dom.
 4.Learned about webkit in css.
 5.Learned about the react-scroll library.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created a website which fulfill all the needs of travelers.
+2.Implemented sign up and log in features in that website.
+3.Created a simple website having a navbar for practicing the routing concept in React.
+4.Implemented lazy loading in a website using React.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.React JS (Routing, useNavigate (state replace))
+2.JavaScript (localStorage)
+3.Authentication (sign up and log in)
+4.JWT - JSON Web Token (Architecture - Header, Payload, Signature)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Learned how to implement sign up and log in feature in a website.
+2.Learned about the localStorage feature in JS.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3.Learned clearly about the routing concepts in React JS.
+4.Learned how to replace the state received from another page.
+5.Learned about lazy loading in React JS.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6.Learned about the log in authentication with JWT.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 11</t>
   </si>
 </sst>
 </file>
@@ -284,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -331,6 +385,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -382,7 +442,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,15 +450,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,13 +540,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.56"/>
@@ -672,6 +732,28 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="115" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="44.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Sakthivel.A - Work.xlsx
+++ b/Documents/Sakthivel.A - Work.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t xml:space="preserve">Git Hub Link:</t>
   </si>
@@ -292,43 +292,35 @@
 4.JWT - JSON Web Token (Architecture - Header, Payload, Signature)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.Learned how to implement sign up and log in feature in a website.
+    <t xml:space="preserve">1.Learned how to implement sign up and log in feature in a website.
 2.Learned about the localStorage feature in JS.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3.Learned clearly about the routing concepts in React JS.
+3.Learned clearly about the routing concepts in React JS.
 4.Learned how to replace the state received from another page.
 5.Learned about lazy loading in React JS.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6.Learned about the log in authentication with JWT.</t>
-    </r>
+6.Learned about the log in authentication with JWT.</t>
   </si>
   <si>
     <t xml:space="preserve">Week 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created a website called Divum AI using React JS.
+2.Created a sidebar as mentioned in the given Figma.
+3.Created a layout with the created sidebar.
+4.Created a form which will generate a demo data and display it in the website.
+5.Created a demo data in a JSON file for generating the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.React JS - Layout
+2.React JS - icon import
+3.React JS - String Constants
+4.Figma - css code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Learned the Layout concept in React JS.
+2.Learned the proper way to import icons in React JS.
+3.Learned how to use String constants in React JS.
+4.Learned a new HOOKS in React JS called useReducer.
+5.Learned how to use Figma.</t>
   </si>
 </sst>
 </file>
@@ -338,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -384,12 +376,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -542,8 +528,8 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C12" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,9 +737,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="44.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Sakthivel.A - Work.xlsx
+++ b/Documents/Sakthivel.A - Work.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t xml:space="preserve">Git Hub Link:</t>
   </si>
@@ -321,6 +321,27 @@
 3.Learned how to use String constants in React JS.
 4.Learned a new HOOKS in React JS called useReducer.
 5.Learned how to use Figma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Created a custom dropdown in React JS.
+2.Created a HOC (Higher Order Component) in React JS.
+3.Used SASS files with extension .scss in a React Project.
+4.Implemented redux in a JavaScript file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.React JS – Custom dropdown
+2.React JS – HOC (Higher Order Component)
+3.CSS – SASS (import, mixin, include, extend)
+4.JavaScript – Redux (combineReducer, createStore, subscription, getState)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Learned how to create a custom dropdown in React JS.
+2.Learned about HOC (Higher Order Component) in React JS.
+3.Learned about SASS files.
+4.Learned about redux library.</t>
   </si>
 </sst>
 </file>
@@ -526,10 +547,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C12" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -737,7 +758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="103.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -752,6 +773,23 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="97" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
